--- a/xlsx/敏捷软件开发_intext.xlsx
+++ b/xlsx/敏捷软件开发_intext.xlsx
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Software_prototyping</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%80%9F%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>快速應用程式開發</t>
+    <t>快速应用程式开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DevOps</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E8%BB%9F%E9%AB%94%E7%A8%8B%E5%BA%8F</t>
   </si>
   <si>
-    <t>個人軟體程序</t>
+    <t>个人软体程序</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dynamic_systems_development_method</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E7%94%A8%E8%80%85%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>使用者經驗</t>
+    <t>使用者经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Acceptance_test%E2%80%93driven_development</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E7%BA%8C%E6%95%B4%E5%90%88</t>
   </si>
   <si>
-    <t>持續整合</t>
+    <t>持续整合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E7%BA%8C%E4%BA%A4%E4%BB%98</t>
   </si>
   <si>
-    <t>持續交付</t>
+    <t>持续交付</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Domain-driven_design</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E5%99%A8</t>
   </si>
   <si>
-    <t>編譯器</t>
+    <t>编译器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E8%AF%95%E5%B7%A5%E5%85%B7</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%BB%BA%E8%87%AA%E5%8B%95%E5%8C%96</t>
   </si>
   <si>
-    <t>組建自動化</t>
+    <t>组建自动化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Application_release_automation</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E7%B4%A2%E6%80%A7%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>探索性測試</t>
+    <t>探索性测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
